--- a/IMED/Output/IMED05_2019_20_Jun.xlsx
+++ b/IMED/Output/IMED05_2019_20_Jun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="154">
   <si>
     <t>Government of the People’s Republic of Bangladesh</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Monthly Progress Report</t>
   </si>
   <si>
+    <t>Reporting Period: Jun/2020</t>
+  </si>
+  <si>
     <t>Name of the Ministry/Division/Organization</t>
   </si>
   <si>
@@ -66,6 +69,10 @@
     <t>Taka released</t>
   </si>
   <si>
+    <t>Expenditure upto Reporting Period:
+Reporting Period: Jun/2020&amp; % of allocation</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -84,6 +91,29 @@
     <t>“Haor Flood Management and Livelihood Improvement Project (BWDB part)”</t>
   </si>
   <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>19000.00
+(18500.00)</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>16467.20</t>
+  </si>
+  <si>
+    <t>3244.64</t>
+  </si>
+  <si>
+    <t>13222.56
+(12776.79)</t>
+  </si>
+  <si>
     <t>Sub Total :</t>
   </si>
   <si>
@@ -189,15 +219,30 @@
     <t xml:space="preserve">         and Physical Target</t>
   </si>
   <si>
+    <t>19000.00(18500.00)</t>
+  </si>
+  <si>
     <t xml:space="preserve">          e)    Progress of current month</t>
   </si>
   <si>
+    <t>7733.48</t>
+  </si>
+  <si>
+    <t>1681.06</t>
+  </si>
+  <si>
+    <t>6052.43(5996.98)</t>
+  </si>
+  <si>
     <t xml:space="preserve">         f)    Progress upto the current</t>
   </si>
   <si>
     <t xml:space="preserve">            month of the year</t>
   </si>
   <si>
+    <t>13222.56(12776.79)</t>
+  </si>
+  <si>
     <t xml:space="preserve">             g)  Fund released upto the current</t>
   </si>
   <si>
@@ -234,18 +279,30 @@
     <t>b)  Achievement            :</t>
   </si>
   <si>
-    <t>130.94</t>
+    <t>130.96</t>
   </si>
   <si>
     <t>1.55%</t>
   </si>
   <si>
-    <t>744.32</t>
+    <t>742.35</t>
   </si>
   <si>
     <t>4.75%</t>
   </si>
   <si>
+    <t>4172.08</t>
+  </si>
+  <si>
+    <t>4.50%</t>
+  </si>
+  <si>
+    <t>11421.80</t>
+  </si>
+  <si>
+    <t>11.20%</t>
+  </si>
+  <si>
     <t>Target and Achievement of the main Components of the Project:</t>
   </si>
   <si>
@@ -259,204 +316,181 @@
   </si>
   <si>
     <t>Revised Target of the current year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical (% of  the component) </t>
-  </si>
-  <si>
-    <t>Physical (% of  the component)</t>
-  </si>
-  <si>
-    <t>A.</t>
-  </si>
-  <si>
-    <t>Revenue Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allowances </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel expences </t>
-  </si>
-  <si>
-    <t>Office rent for PMO</t>
-  </si>
-  <si>
-    <t>Misc. taxes</t>
-  </si>
-  <si>
-    <t>Postage, telephone, Internate, Fax, telex etc.</t>
-  </si>
-  <si>
-    <t>Registration Fees (Vehicles)</t>
-  </si>
-  <si>
-    <t>Water &amp; Elecricity</t>
-  </si>
-  <si>
-    <t>Gas &amp; Fuel and Petrol &amp; Lubricant</t>
-  </si>
-  <si>
-    <t>Insurance/Bank Charges (incl.Veh.)</t>
-  </si>
-  <si>
-    <t>Printing &amp; Binding</t>
-  </si>
-  <si>
-    <t>Stationary</t>
-  </si>
-  <si>
-    <t>Books &amp; periodical</t>
-  </si>
-  <si>
-    <t>Overseas Training</t>
-  </si>
-  <si>
-    <t>Local Training</t>
-  </si>
-  <si>
-    <t>Casual labour/Job worker</t>
-  </si>
-  <si>
-    <t>Consumable Stores</t>
-  </si>
-  <si>
-    <t>Consultancy</t>
-  </si>
-  <si>
-    <t>Honorarium/Fees/ Remuneration</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Computer Consumables</t>
-  </si>
-  <si>
-    <t>Other expenses, Out sourcing Staff Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repair &amp; Maintenance of Vehicles, furniture, computers  &amp; other structure </t>
-  </si>
-  <si>
-    <t>SubTotal A:</t>
-  </si>
-  <si>
-    <t>B.</t>
-  </si>
-  <si>
-    <t>Capital Component</t>
-  </si>
-  <si>
-    <t>Motor Vehicle</t>
-  </si>
-  <si>
-    <t>Water Transport</t>
-  </si>
-  <si>
-    <t>Machinary &amp; other equipment</t>
-  </si>
-  <si>
-    <t>Engineering equipment</t>
-  </si>
-  <si>
-    <t>Computer &amp; Accessories</t>
-  </si>
-  <si>
-    <t>Furniture &amp; fixture and Aircooler</t>
-  </si>
-  <si>
-    <t>Land acquisition</t>
-  </si>
-  <si>
-    <t>Construction Works</t>
-  </si>
-  <si>
-    <t>SubTotal B:</t>
-  </si>
-  <si>
-    <t>Total A + B:</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>Physical Contingency</t>
-  </si>
-  <si>
-    <t>D.</t>
-  </si>
-  <si>
-    <t>Price  Contingency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Grand Total    (A+B+C+D):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.    Reasons for the delay of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Project implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  :  N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10.     Existing problems of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Implementation of the project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       :  N/A</t>
-  </si>
-  <si>
-    <t>Project Director</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haor Flood Management and </t>
-  </si>
-  <si>
-    <t>Livelihood Improvement Project.</t>
-  </si>
-  <si>
-    <t>BWDB, Dhaka.</t>
-  </si>
-  <si>
-    <t>Reporting Period: Jun/2020</t>
   </si>
   <si>
     <t>Progress upto the month of 
 Reporting Period: Jun/2020 of the current year</t>
   </si>
   <si>
-    <t>Progress upto the month of Jun/2020 of the current year</t>
-  </si>
-  <si>
-    <t>16200(15500)</t>
-  </si>
-  <si>
-    <t>16200
-(15500)</t>
-  </si>
-  <si>
-    <t>Expenditure upto Reporting Period:
-Reporting Period: Jun/2020&amp; % of allocation</t>
-  </si>
-  <si>
-    <t>10600.12(10150.12)</t>
-  </si>
-  <si>
-    <t>3473.55(3419.05)</t>
-  </si>
-  <si>
-    <t>10600.12 (10150.12)</t>
+    <t xml:space="preserve">Physical (% of  the component) </t>
+  </si>
+  <si>
+    <t>Physical (% of  the component)</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Revenue Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowances </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel expences </t>
+  </si>
+  <si>
+    <t>Office rent for PMO</t>
+  </si>
+  <si>
+    <t>Misc. taxes</t>
+  </si>
+  <si>
+    <t>Postage, telephone, Internate, Fax, telex etc.</t>
+  </si>
+  <si>
+    <t>Registration Fees (Vehicles)</t>
+  </si>
+  <si>
+    <t>Water &amp; Elecricity</t>
+  </si>
+  <si>
+    <t>Gas &amp; Fuel and Petrol &amp; Lubricant</t>
+  </si>
+  <si>
+    <t>Insurance/Bank Charges (incl.Veh.)</t>
+  </si>
+  <si>
+    <t>Printing &amp; Binding</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Books &amp; periodical</t>
+  </si>
+  <si>
+    <t>Overseas Training</t>
+  </si>
+  <si>
+    <t>Local Training</t>
+  </si>
+  <si>
+    <t>Casual labour/Job worker</t>
+  </si>
+  <si>
+    <t>Consumable Stores</t>
+  </si>
+  <si>
+    <t>Consultancy</t>
+  </si>
+  <si>
+    <t>Honorarium/Fees/ Remuneration</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Computer Consumables</t>
+  </si>
+  <si>
+    <t>Other expenses, Out sourcing Staff Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair &amp; Maintenance of Vehicles, furniture, computers  &amp; other structure </t>
+  </si>
+  <si>
+    <t>SubTotal A:</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Capital Component</t>
+  </si>
+  <si>
+    <t>Motor Vehicle</t>
+  </si>
+  <si>
+    <t>Water Transport</t>
+  </si>
+  <si>
+    <t>Machinary &amp; other equipment</t>
+  </si>
+  <si>
+    <t>Engineering equipment</t>
+  </si>
+  <si>
+    <t>Computer &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Furniture &amp; fixture and Aircooler</t>
+  </si>
+  <si>
+    <t>Land acquisition</t>
+  </si>
+  <si>
+    <t>Construction Works</t>
+  </si>
+  <si>
+    <t>SubTotal B:</t>
+  </si>
+  <si>
+    <t>Total A + B:</t>
+  </si>
+  <si>
+    <t>Progress upto the month of May/2018 of the current year</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>Physical Contingency</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>Price  Contingency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Grand Total    (A+B+C+D):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.    Reasons for the delay of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Project implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  :  N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.     Existing problems of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Implementation of the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       :  N/A</t>
+  </si>
+  <si>
+    <t>Project Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haor Flood Management and </t>
+  </si>
+  <si>
+    <t>Livelihood Improvement Project.</t>
+  </si>
+  <si>
+    <t>BWDB, Dhaka.</t>
   </si>
 </sst>
 </file>
@@ -587,18 +621,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -749,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -855,6 +883,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,43 +920,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,28 +971,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -964,30 +1001,6 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,477 +1308,479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="43" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="43" customWidth="1"/>
+    <col min="1" max="1" width="3" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="72" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="6"/>
-      <c r="G13" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="G13" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="66" t="s">
+      <c r="B14" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="76" t="s">
+      <c r="C14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="D15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="E15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="47" t="s">
         <v>15</v>
       </c>
+      <c r="H15" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
+      <c r="B16" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7">
-        <v>19445</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3245</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="58">
-        <v>3245</v>
-      </c>
-      <c r="G17" s="45">
-        <v>13720.94</v>
-      </c>
-      <c r="H17" s="45">
-        <v>3120.82</v>
+      <c r="B17" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="str">
         <f t="shared" ref="C18:I18" si="0">+C17</f>
-        <v>19445</v>
-      </c>
-      <c r="D18" s="7">
+        <v>25000.00</v>
+      </c>
+      <c r="D18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3245</v>
-      </c>
-      <c r="E18" s="45" t="str">
+        <v>6000.00</v>
+      </c>
+      <c r="E18" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>16200
-(15500)</v>
-      </c>
-      <c r="F18" s="58">
+        <v>19000.00
+(18500.00)</v>
+      </c>
+      <c r="F18" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>3245</v>
-      </c>
-      <c r="G18" s="45">
+        <v>1500.00</v>
+      </c>
+      <c r="G18" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>13720.94</v>
-      </c>
-      <c r="H18" s="45">
+        <v>16467.20</v>
+      </c>
+      <c r="H18" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>3120.82</v>
-      </c>
-      <c r="I18" s="45" t="str">
+        <v>3244.64</v>
+      </c>
+      <c r="I18" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>10600.12 (10150.12)</v>
+        <v>13222.56
+(12776.79)</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="79"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
+      <c r="B24" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="78"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="79"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="78"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="79"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="79"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="B31" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="75"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="79"/>
+      <c r="B33" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="78"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="79"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="79"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="68"/>
       <c r="L35">
         <f>2156.86+1668.47+508.05</f>
         <v>4333.38</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="79"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="68"/>
       <c r="L36">
         <f>+L35+270.35</f>
         <v>4603.7300000000005</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68"/>
+      <c r="B38" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="7">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="str">
         <f t="shared" ref="C39:I39" si="1">+C18</f>
-        <v>19445</v>
-      </c>
-      <c r="D39" s="7">
+        <v>25000.00</v>
+      </c>
+      <c r="D39" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>3245</v>
-      </c>
-      <c r="E39" s="45" t="str">
+        <v>6000.00</v>
+      </c>
+      <c r="E39" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>16200
-(15500)</v>
-      </c>
-      <c r="F39" s="45">
+        <v>19000.00
+(18500.00)</v>
+      </c>
+      <c r="F39" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>3245</v>
-      </c>
-      <c r="G39" s="45">
+        <v>1500.00</v>
+      </c>
+      <c r="G39" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>13720.94</v>
-      </c>
-      <c r="H39" s="45">
+        <v>16467.20</v>
+      </c>
+      <c r="H39" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>3120.82</v>
-      </c>
-      <c r="I39" s="45" t="str">
+        <v>3244.64</v>
+      </c>
+      <c r="I39" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>10600.12 (10150.12)</v>
+        <v>13222.56
+(12776.79)</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1792,6 +1807,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="G13:I13"/>
@@ -1808,29 +1840,9 @@
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.95" right="0.45" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1838,73 +1850,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="9" style="43" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="43" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="43" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="43" customWidth="1"/>
-    <col min="17" max="17" width="13" style="43" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="9" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="13" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="91" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="92" t="s">
+      <c r="A2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -1919,16 +1931,16 @@
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
-      <c r="E5" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="E5" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
@@ -1949,11 +1961,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
@@ -1969,11 +1981,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
@@ -1989,7 +2001,7 @@
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -2004,14 +2016,14 @@
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="D10" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
@@ -2035,11 +2047,11 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -2055,7 +2067,7 @@
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -2085,11 +2097,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="28" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -2114,17 +2126,17 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>5</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -2134,7 +2146,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2148,257 +2160,247 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>6</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="28" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="28" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="76" t="s">
+      <c r="F20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="75"/>
+      <c r="G20" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="65"/>
+      <c r="J20" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="65"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="82"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="14"/>
       <c r="E22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="49">
+        <v>48</v>
+      </c>
+      <c r="F22" s="51">
         <v>99337.72</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="51">
         <v>39891.620000000003</v>
       </c>
-      <c r="H22" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="44"/>
+      <c r="H22" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="36"/>
-      <c r="P22" s="43">
-        <v>10605.49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="12"/>
       <c r="E23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="67"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="36"/>
-      <c r="P23" s="43">
-        <v>10155.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="44"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="36"/>
-      <c r="P24" s="43">
-        <f>P22-P23</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="88">
+        <v>48</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="67"/>
+      <c r="J25" s="82">
         <v>0.54</v>
       </c>
-      <c r="K25" s="62"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="44"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="12"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="50">
-        <v>19445</v>
-      </c>
-      <c r="G27" s="50">
-        <v>3245</v>
-      </c>
-      <c r="H27" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="88">
+        <v>48</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="82">
         <v>0.26</v>
       </c>
-      <c r="K27" s="62"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="50">
-        <v>5173.8100000000004</v>
-      </c>
-      <c r="G28" s="49">
-        <v>1700.14</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="K28" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="67"/>
+      <c r="J28" s="82">
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="K28" s="67"/>
       <c r="L28" s="36"/>
       <c r="M28" s="38">
         <f>+F30-4186.78</f>
-        <v>9534.16</v>
+        <v>12280.420000000002</v>
       </c>
       <c r="N28">
         <f>+G30-881.53</f>
-        <v>2239.29</v>
+        <v>2363.1099999999997</v>
       </c>
       <c r="O28" s="40">
         <v>176.43100000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="44"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="36"/>
       <c r="M29">
         <f>4603.72-3305.28</f>
@@ -2409,68 +2411,68 @@
         <v>1298.44</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="12"/>
       <c r="E30" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="49">
-        <v>13720.94</v>
-      </c>
-      <c r="G30" s="49">
-        <v>3120.82</v>
-      </c>
-      <c r="H30" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="88">
-        <v>0.17</v>
-      </c>
-      <c r="K30" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="67"/>
+      <c r="J30" s="82">
+        <v>0.22</v>
+      </c>
+      <c r="K30" s="67"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="44"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="36"/>
       <c r="M31">
         <f>5719.13-1298.44</f>
         <v>4420.6900000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="12"/>
       <c r="E32" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="46"/>
       <c r="L32" s="36"/>
       <c r="M32">
         <f>5304.69-1298.44</f>
@@ -2496,12 +2498,12 @@
         <v>7</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="28"/>
       <c r="E34" s="36" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -2513,7 +2515,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2524,7 +2526,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -2533,30 +2535,30 @@
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
-      <c r="D36" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="68"/>
-      <c r="I36" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="68"/>
-      <c r="N36" s="38">
+      <c r="D36" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="61"/>
+      <c r="I36" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="61"/>
+      <c r="K36" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="N36" s="38" t="str">
         <f>F30</f>
-        <v>13720.94</v>
-      </c>
-      <c r="O36">
+        <v>16467.20</v>
+      </c>
+      <c r="O36" t="str">
         <f>G30</f>
-        <v>3120.82</v>
+        <v>3244.64</v>
       </c>
       <c r="P36" s="38">
         <v>11329.88</v>
@@ -2569,30 +2571,30 @@
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" s="47" t="s">
-        <v>66</v>
+      <c r="D37" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="61"/>
+      <c r="F37" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="N37" s="38">
         <v>11562.02</v>
@@ -2610,7 +2612,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="28" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="19">
@@ -2643,11 +2645,11 @@
       </c>
       <c r="N38" s="38">
         <f>N36-N37</f>
-        <v>2158.92</v>
+        <v>4905.18</v>
       </c>
       <c r="O38">
         <f>O36-O37</f>
-        <v>172.51999999999998</v>
+        <v>296.33999999999969</v>
       </c>
       <c r="P38" s="38">
         <f>P36-P37</f>
@@ -2675,37 +2677,37 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="19">
-        <v>4107.6400000000003</v>
-      </c>
-      <c r="J40" s="20">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K40" s="19">
-        <v>8738.0400000000009</v>
-      </c>
-      <c r="L40" s="20">
-        <v>6.2E-2</v>
+        <v>86</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="N40" s="38">
         <f>+K40+I40+G40+D40</f>
-        <v>13720.94</v>
+        <v>16467.189999999999</v>
       </c>
       <c r="O40">
         <v>6313.62</v>
@@ -2758,7 +2760,7 @@
       <c r="L42" s="36"/>
       <c r="N42" s="38">
         <f>N40-N41</f>
-        <v>2158.92</v>
+        <v>4905.1699999999983</v>
       </c>
       <c r="O42" s="38">
         <f>O40-O41</f>
@@ -2813,7 +2815,7 @@
       </c>
       <c r="O45">
         <f>D40*-1</f>
-        <v>-130.94</v>
+        <v>-130.96</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2823,23 +2825,39 @@
       </c>
       <c r="O46">
         <f>G40*-1</f>
-        <v>-744.32</v>
+        <v>-742.35</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O47">
         <f>I40*-1</f>
-        <v>-4107.6400000000003</v>
+        <v>-4172.08</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O48">
         <f>O44+O45+O46+O47</f>
-        <v>12660.320000000003</v>
+        <v>12597.830000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B1:I1"/>
@@ -2856,193 +2874,175 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.45" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="8" style="43" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="43" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="43" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="59"/>
+    <col min="1" max="1" width="4.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="8" style="45" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="45" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="51">
+      <c r="A1" s="53">
         <v>8</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="I1" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="61"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="47" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="47" t="s">
+      <c r="E3" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="49" t="s">
         <v>79</v>
       </c>
+      <c r="G3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C5" s="30">
         <v>160</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="49">
         <v>37.619999999999997</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="55">
+        <v>102</v>
+      </c>
+      <c r="F5" s="30">
         <v>14.5</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="55">
-        <v>14.5</v>
+      <c r="G5" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="30">
+        <v>14.500349999999999</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="A6" s="49">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C6" s="30">
         <v>100</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="49">
         <v>58.54</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="55">
+        <v>102</v>
+      </c>
+      <c r="F6" s="30">
         <v>15</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="55">
-        <v>14.98</v>
+      <c r="G6" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="30">
+        <v>14.830109999999999</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="A7" s="49">
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C7" s="30">
         <v>245</v>
@@ -3051,30 +3051,29 @@
         <v>116.67</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="55">
+        <v>102</v>
+      </c>
+      <c r="F7" s="30">
         <v>34.25</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="55">
-        <v>34.21</v>
+      <c r="G7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="30">
+        <v>36.349499999999999</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="A8" s="49">
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="47">
+        <v>105</v>
+      </c>
+      <c r="C8" s="49">
         <v>2596.27</v>
       </c>
       <c r="D8" s="30">
@@ -3083,443 +3082,428 @@
       <c r="E8" s="31">
         <v>1.2E-2</v>
       </c>
-      <c r="F8" s="55">
-        <v>179.54</v>
-      </c>
-      <c r="G8" s="56">
+      <c r="F8" s="30">
+        <v>359.08</v>
+      </c>
+      <c r="G8" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="55">
-        <v>177.18</v>
+      <c r="H8" s="30">
+        <v>175.0337882</v>
       </c>
       <c r="I8" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="A9" s="49">
         <v>5</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C9" s="30">
         <v>75</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="49">
         <v>2.1800000000000002</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="55">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="55">
-        <v>0.65</v>
+        <v>102</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.65507000000000015</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="49">
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C10" s="30">
         <v>15</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="49">
         <v>11.92</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="55">
+        <v>102</v>
+      </c>
+      <c r="F10" s="30">
         <v>1</v>
       </c>
-      <c r="G10" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="55">
-        <v>0.17</v>
+      <c r="G10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.22972000000000001</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="A11" s="49">
         <v>7</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C11" s="30">
         <v>25</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="49">
         <v>9.85</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="55">
-        <v>4.7</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="55">
-        <v>3.44</v>
+        <v>102</v>
+      </c>
+      <c r="F11" s="30">
+        <v>3.95</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="30">
+        <v>3.2058400000000011</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="49">
         <v>8</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C12" s="30">
         <v>350</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="49">
         <v>82.11</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="55">
-        <v>31</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="55">
-        <v>28.2</v>
+        <v>102</v>
+      </c>
+      <c r="F12" s="30">
+        <v>26</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="30">
+        <v>28.19333</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+      <c r="A13" s="49">
         <v>9</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C13" s="30">
         <v>3</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="49">
         <v>1.1599999999999999</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="55">
-        <v>1</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="55">
-        <v>0.91</v>
+        <v>102</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.84707749999999993</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="38"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="49">
         <v>10</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="49">
         <v>34.159999999999997</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="55">
+        <v>102</v>
+      </c>
+      <c r="F14" s="30">
         <v>0.5</v>
       </c>
-      <c r="G14" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="55">
-        <v>0.5</v>
+      <c r="G14" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0.50023000000000006</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="59">
+        <v>102</v>
+      </c>
+      <c r="L14">
         <v>242.23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="A15" s="49">
         <v>11</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C15" s="30">
         <v>150</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="49">
         <v>49.91</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="55">
+        <v>102</v>
+      </c>
+      <c r="F15" s="30">
         <v>20</v>
       </c>
-      <c r="G15" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="55">
-        <v>19.95</v>
+      <c r="G15" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="30">
+        <v>19.94997</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="59">
+        <v>102</v>
+      </c>
+      <c r="L15">
         <v>860.03</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+      <c r="A16" s="49">
         <v>12</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C16" s="30">
         <v>2</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="49">
         <v>0.28000000000000003</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="55">
+        <v>102</v>
+      </c>
+      <c r="F16" s="30">
         <v>0.2</v>
       </c>
-      <c r="G16" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="55">
-        <v>0.2</v>
+      <c r="G16" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0.19677</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="59">
+        <v>102</v>
+      </c>
+      <c r="L16">
         <v>7478.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
         <v>13</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="47">
+        <v>114</v>
+      </c>
+      <c r="C17" s="49">
         <v>238.54</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="49">
         <v>0</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="55">
+        <v>102</v>
+      </c>
+      <c r="F17" s="30">
         <v>0</v>
       </c>
-      <c r="G17" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="55">
-        <v>0</v>
+      <c r="G17" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="30">
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="59">
+        <v>102</v>
+      </c>
+      <c r="L17">
         <f>SUM(L14:L16)</f>
         <v>8580.4599999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
         <v>14</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="47">
+        <v>115</v>
+      </c>
+      <c r="C18" s="49">
         <v>4253.43</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="49">
         <v>2226.33</v>
       </c>
       <c r="E18" s="31">
         <v>0.03</v>
       </c>
-      <c r="F18" s="55">
-        <v>810</v>
-      </c>
-      <c r="G18" s="56">
+      <c r="F18" s="30">
+        <v>1119.97</v>
+      </c>
+      <c r="G18" s="31">
         <v>0.01</v>
       </c>
-      <c r="H18" s="55">
-        <v>443.3</v>
+      <c r="H18" s="30">
+        <v>448.51503500000001</v>
       </c>
       <c r="I18" s="31">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="L18">
         <v>11130.71</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
         <v>15</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C19" s="30">
         <v>15</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="49">
         <v>10.96</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="55">
+        <v>102</v>
+      </c>
+      <c r="F19" s="30">
         <v>3.5</v>
       </c>
-      <c r="G19" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="55">
-        <v>3.49</v>
+      <c r="G19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="30">
+        <v>3.4858799999999999</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="59">
+        <v>102</v>
+      </c>
+      <c r="L19">
         <f>L18-L17</f>
         <v>2550.25</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="47">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
         <v>16</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C20" s="30">
         <v>25</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="49">
         <v>3.74</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="55">
+        <v>102</v>
+      </c>
+      <c r="F20" s="30">
         <v>3</v>
       </c>
-      <c r="G20" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="55">
-        <v>3</v>
+      <c r="G20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="30">
+        <v>2.50176</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="59">
+        <v>102</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
         <v>17</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C21" s="30">
         <v>7901.4</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="49">
         <v>5168.01</v>
       </c>
       <c r="E21" s="31">
         <v>0.03</v>
       </c>
-      <c r="F21" s="55">
-        <v>700</v>
-      </c>
-      <c r="G21" s="56">
+      <c r="F21" s="30">
+        <v>500</v>
+      </c>
+      <c r="G21" s="31">
         <v>0.01</v>
       </c>
-      <c r="H21" s="55">
-        <v>450</v>
+      <c r="H21" s="30">
+        <v>445.77668</v>
       </c>
       <c r="I21" s="31">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="L21" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="L21">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M21">
-        <f>4.5/7</f>
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+    </row>
+    <row r="22" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
         <v>18</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C22" s="30">
         <v>45</v>
@@ -3528,145 +3512,145 @@
         <v>15.32</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="55">
+        <v>102</v>
+      </c>
+      <c r="F22" s="30">
         <v>7</v>
       </c>
-      <c r="G22" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="57">
-        <v>3.82</v>
+      <c r="G22" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="43">
+        <v>3.8170500000000001</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" s="59">
+        <v>102</v>
+      </c>
+      <c r="L22">
         <f>L19+L20+L21</f>
         <v>2553.7800000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="49">
         <v>19</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C23" s="30">
         <v>162</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="49">
         <v>85.02</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="55">
-        <v>30</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="55">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="F23" s="30">
+        <v>50</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="30">
+        <v>30.39855</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
         <v>20</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C24" s="30">
         <v>50</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="49">
         <v>20.47</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="55">
+        <v>102</v>
+      </c>
+      <c r="F24" s="30">
         <v>10</v>
       </c>
-      <c r="G24" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="55">
-        <v>10</v>
+      <c r="G24" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="30">
+        <v>9.9980499999999992</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49">
         <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C25" s="30">
         <v>1700</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="49">
         <v>875.46</v>
       </c>
       <c r="E25" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="30">
         <v>300</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="31">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="55">
-        <v>299.95999999999998</v>
+      <c r="H25" s="30">
+        <v>346.30817999999988</v>
       </c>
       <c r="I25" s="31">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+    <row r="26" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
         <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C26" s="30">
         <v>627.5</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="49">
         <v>211.96</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="55">
-        <v>84.11</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="55">
-        <v>63.06</v>
+        <v>102</v>
+      </c>
+      <c r="F26" s="30">
+        <v>91</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="30">
+        <v>65.280309999999986</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C27" s="33">
         <f t="shared" ref="C27:I27" si="0">SUM(C5:C26)</f>
@@ -3682,129 +3666,129 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>2560</v>
       </c>
       <c r="G27" s="31">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="44">
         <f t="shared" si="0"/>
-        <v>1601.52</v>
+        <v>1650.5734407</v>
       </c>
       <c r="I27" s="31">
         <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="30"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="49">
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="47">
+        <v>127</v>
+      </c>
+      <c r="C29" s="49">
         <v>770.75</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="49">
         <v>657.12</v>
       </c>
       <c r="E29" s="31">
         <v>0.01</v>
       </c>
       <c r="F29" s="30">
-        <v>0</v>
+        <v>95.6</v>
       </c>
       <c r="G29" s="31">
         <v>0.01</v>
       </c>
       <c r="H29" s="30">
-        <v>0</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="49">
         <v>2</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C30" s="30">
         <v>100</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="49">
         <v>61.29</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F30" s="30">
         <v>0</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H30" s="30">
-        <v>0</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49">
         <v>3</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="47">
+        <v>129</v>
+      </c>
+      <c r="C31" s="49">
         <v>13.97</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="49">
         <v>9.7399999999999984</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F31" s="30">
         <v>0</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H31" s="30">
-        <v>0</v>
+        <v>9.1E-4</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="49">
         <v>4</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C32" s="30">
         <v>76.5</v>
@@ -3813,27 +3797,27 @@
         <v>31.8</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="55">
+        <v>102</v>
+      </c>
+      <c r="F32" s="30">
         <v>5</v>
       </c>
-      <c r="G32" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="55">
+      <c r="G32" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="30">
+        <v>4.99709</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="49">
         <v>5</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
-        <v>5</v>
-      </c>
       <c r="B33" s="29" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C33" s="30">
         <v>40</v>
@@ -3842,118 +3826,114 @@
         <v>33.630000000000003</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F33" s="30">
         <v>0</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H33" s="30">
-        <v>0</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49">
         <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C34" s="30">
         <v>65</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="49">
         <v>55.05</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="55">
+        <v>102</v>
+      </c>
+      <c r="F34" s="30">
         <v>4</v>
       </c>
-      <c r="G34" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="55">
-        <v>2.99</v>
+      <c r="G34" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="30">
+        <v>2.9887000000000001</v>
       </c>
       <c r="I34" s="31"/>
-      <c r="M34">
-        <f>(111/161)*0.19</f>
-        <v>0.13099378881987578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="49">
         <v>7</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C35" s="30">
         <v>24000</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="49">
         <v>14323.6</v>
       </c>
       <c r="E35" s="31">
         <v>0.08</v>
       </c>
       <c r="F35" s="30">
-        <v>1000</v>
+        <v>2049.42</v>
       </c>
       <c r="G35" s="31">
         <v>0.03</v>
       </c>
-      <c r="H35" s="54">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="47">
+      <c r="H35" s="30">
+        <v>1000.00056</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
         <v>8</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C36" s="30">
         <v>53364.5</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="49">
         <v>19763.62</v>
       </c>
       <c r="E36" s="31">
         <v>0.36</v>
       </c>
       <c r="F36" s="30">
-        <v>16186</v>
+        <v>20285.98</v>
       </c>
       <c r="G36" s="31">
         <v>0.19</v>
       </c>
-      <c r="H36" s="54">
-        <v>11111.43</v>
+      <c r="H36" s="30">
+        <v>13808.63632</v>
       </c>
       <c r="I36" s="31">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="L36" s="59">
+        <v>0.19</v>
+      </c>
+      <c r="L36">
         <f>0.35+3.25+8</f>
         <v>11.6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C37" s="33">
         <f t="shared" ref="C37:I37" si="1">SUM(C29:C36)</f>
@@ -3968,8 +3948,8 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="F37" s="33">
-        <f>SUM(F29:F36)</f>
-        <v>17195</v>
+        <f t="shared" si="1"/>
+        <v>22440</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="1"/>
@@ -3977,21 +3957,21 @@
       </c>
       <c r="H37" s="33">
         <f t="shared" si="1"/>
-        <v>12119.42</v>
+        <v>14816.62693</v>
       </c>
       <c r="I37" s="31">
         <f t="shared" si="1"/>
-        <v>0.14750000000000002</v>
-      </c>
-      <c r="L37" s="59">
+        <v>0.19</v>
+      </c>
+      <c r="L37">
         <f>+L36+2.4</f>
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C38" s="37">
         <f>+C37+C27</f>
@@ -4007,7 +3987,7 @@
       </c>
       <c r="F38" s="33">
         <f>+F37+F27</f>
-        <v>19445</v>
+        <v>25000</v>
       </c>
       <c r="G38" s="31">
         <f>G27+G37</f>
@@ -4015,14 +3995,14 @@
       </c>
       <c r="H38" s="33">
         <f>+H37+H27</f>
-        <v>13720.94</v>
+        <v>16467.2003707</v>
       </c>
       <c r="I38" s="31">
         <f>I27+_GoBack</f>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="27"/>
@@ -4033,113 +4013,113 @@
       <c r="H39" s="23"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="68"/>
+    <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="61"/>
+      <c r="H40" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="61"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="47" t="s">
+    <row r="41" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="47" t="s">
+      <c r="E41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G41" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C42" s="30">
         <v>258</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="49">
         <v>0</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47">
+      <c r="E42" s="49"/>
+      <c r="F42" s="49">
         <v>0</v>
       </c>
-      <c r="G42" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="47">
+      <c r="G42" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="49">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="49">
+        <v>402.14</v>
+      </c>
+      <c r="D43" s="49">
         <v>0</v>
       </c>
-      <c r="I42" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="47">
-        <v>402.14</v>
-      </c>
-      <c r="D43" s="47">
+      <c r="E43" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="49">
         <v>0</v>
       </c>
-      <c r="E43" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="47">
-        <v>0</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="47">
-        <v>0</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="49">
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C44" s="33">
         <f>+C43+C42+C38</f>
@@ -4155,7 +4135,7 @@
       </c>
       <c r="F44" s="33">
         <f>+F38</f>
-        <v>19445</v>
+        <v>25000</v>
       </c>
       <c r="G44" s="35">
         <f>SUM(G38,G42,G43)</f>
@@ -4163,19 +4143,19 @@
       </c>
       <c r="H44" s="33">
         <f>+H38</f>
-        <v>13720.94</v>
+        <v>16467.2003707</v>
       </c>
       <c r="I44" s="35">
         <f>SUM(I38,I42,I43)</f>
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="K44" s="42"/>
-      <c r="L44" s="60">
+      <c r="L44" s="38">
         <f>+H44-H21</f>
-        <v>13270.94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16021.423690699999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -4186,11 +4166,11 @@
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="62"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="67"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -4198,29 +4178,29 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="L46" s="59">
+      <c r="L46">
         <v>23000</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="62"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="67"/>
       <c r="C47" s="25"/>
       <c r="D47" s="12" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="L47" s="59">
+      <c r="L47">
         <v>8287.4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4230,42 +4210,42 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="L48" s="59">
+      <c r="L48">
         <f>L46-L47</f>
         <v>14712.6</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="L49" s="59">
+      <c r="L49">
         <v>3879.9</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B50" s="28"/>
-      <c r="C50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="L50" s="59">
+      <c r="L50">
         <f>L48+L49</f>
         <v>18592.5</v>
       </c>
@@ -4280,7 +4260,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="L51" s="59">
+      <c r="L51">
         <v>1</v>
       </c>
     </row>
@@ -4294,7 +4274,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="L52" s="59">
+      <c r="L52">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -4306,7 +4286,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="L53" s="60">
+      <c r="L53" s="38">
         <f>L50+L52</f>
         <v>18595.03</v>
       </c>
@@ -4316,12 +4296,12 @@
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="51" t="s">
-        <v>130</v>
+      <c r="G54" s="53" t="s">
+        <v>150</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="L54" s="59">
+      <c r="L54">
         <v>23000</v>
       </c>
     </row>
@@ -4330,12 +4310,12 @@
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="51" t="s">
-        <v>131</v>
+      <c r="G55" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="L55" s="59">
+      <c r="L55">
         <v>-8287.4</v>
       </c>
     </row>
@@ -4344,12 +4324,12 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="51" t="s">
-        <v>132</v>
+      <c r="G56" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="L56" s="59">
+      <c r="L56">
         <v>3879.9</v>
       </c>
     </row>
@@ -4360,12 +4340,12 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="51" t="s">
-        <v>133</v>
+      <c r="G57" s="53" t="s">
+        <v>153</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="L57" s="59">
+      <c r="L57">
         <v>3.53</v>
       </c>
     </row>
@@ -4379,7 +4359,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="L58" s="60">
+      <c r="L58" s="38">
         <f>SUM(L54:L57)</f>
         <v>18596.03</v>
       </c>
@@ -4425,6 +4405,6 @@
     <mergeCell ref="H40:I40"/>
   </mergeCells>
   <pageMargins left="1.2" right="0.45" top="0.75" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>